--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1263410.823284014</v>
+        <v>1261523.241767612</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>236.3231712298447</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -677,7 +677,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>16.30528751750364</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -817,19 +817,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>67.24036028042063</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>22.11041309544133</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,10 +911,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>127.4503722947885</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481167</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>117.5430388418888</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>10.6400721734892</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1066,7 +1066,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>223.1498336210774</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,16 +1139,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>325.2557485598869</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>153.5561447847209</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1333,28 +1333,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491428</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>236.7139500600954</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>14.19510348422587</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,16 +1528,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>207.2045317851311</v>
+        <v>115.5269768002177</v>
       </c>
     </row>
     <row r="14">
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>11.7610261659662</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>14.7844352190369</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,16 +2002,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>28.56876306769622</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>115.5269768002172</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,16 +2239,16 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>30.51875615035245</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2479,13 +2479,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>118.489884506512</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>182.8414065694719</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2710,19 +2710,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>49.38162151975391</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>207.178954638888</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,10 +2789,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>60.53869096234648</v>
+        <v>112.0435644700708</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965527</v>
+        <v>93.41221638965533</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801209</v>
+        <v>91.23070601801214</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.21779139437422</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897904</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523572</v>
+        <v>54.76109577523575</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550462</v>
@@ -3007,16 +3007,16 @@
         <v>231.0340957700203</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>148.9222935321517</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080339</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
         <v>170.5063987604801</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857236</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373698</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224543</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3314,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498026</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373689</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>80.7819382378955</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.237938656055</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898722</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857175</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692856</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329064</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373699</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789552</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1568.353113282533</v>
+        <v>1198.223260609829</v>
       </c>
       <c r="C2" t="n">
-        <v>1568.353113282533</v>
+        <v>1198.223260609829</v>
       </c>
       <c r="D2" t="n">
-        <v>1210.087414675782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>1210.087414675782</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U2" t="n">
-        <v>2625.650414157298</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V2" t="n">
-        <v>2294.587526813727</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="W2" t="n">
-        <v>1941.818871543613</v>
+        <v>1958.28885893503</v>
       </c>
       <c r="X2" t="n">
-        <v>1568.353113282533</v>
+        <v>1584.82310067395</v>
       </c>
       <c r="Y2" t="n">
-        <v>1568.353113282533</v>
+        <v>1584.82310067395</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2407.731920981262</v>
+        <v>76.27673242182033</v>
       </c>
       <c r="C4" t="n">
-        <v>2238.795738053355</v>
+        <v>76.27673242182033</v>
       </c>
       <c r="D4" t="n">
-        <v>2170.876182214546</v>
+        <v>76.27673242182033</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.963088632153</v>
+        <v>76.27673242182033</v>
       </c>
       <c r="F4" t="n">
-        <v>2022.963088632153</v>
+        <v>76.27673242182033</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U4" t="n">
-        <v>2697.149091018222</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V4" t="n">
-        <v>2697.149091018222</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="W4" t="n">
-        <v>2407.731920981262</v>
+        <v>76.27673242182033</v>
       </c>
       <c r="X4" t="n">
-        <v>2407.731920981262</v>
+        <v>76.27673242182033</v>
       </c>
       <c r="Y4" t="n">
-        <v>2407.731920981262</v>
+        <v>76.27673242182033</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1210.087414675782</v>
+        <v>1738.858660051663</v>
       </c>
       <c r="C5" t="n">
-        <v>1210.087414675782</v>
+        <v>1369.896143111251</v>
       </c>
       <c r="D5" t="n">
-        <v>1210.087414675782</v>
+        <v>1011.630444504501</v>
       </c>
       <c r="E5" t="n">
-        <v>1210.087414675782</v>
+        <v>1011.630444504501</v>
       </c>
       <c r="F5" t="n">
-        <v>799.1015098861748</v>
+        <v>600.6445397148932</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>182.6807316130801</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>182.6807316130801</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2304.755392256245</v>
+        <v>2443.387305656313</v>
       </c>
       <c r="V5" t="n">
-        <v>1973.692504912674</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>1973.692504912674</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X5" t="n">
-        <v>1600.226746651594</v>
+        <v>1738.858660051663</v>
       </c>
       <c r="Y5" t="n">
-        <v>1210.087414675782</v>
+        <v>1738.858660051663</v>
       </c>
     </row>
     <row r="6">
@@ -4635,31 +4635,31 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615929</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572649</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>268.5993065148976</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>268.5993065148976</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>268.5993065148976</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>268.5993065148976</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>268.5993065148976</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>502.7251118619119</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036446</v>
+        <v>279.3468541648867</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1937.315630222944</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1568.353113282533</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1210.087414675782</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036446</v>
@@ -4802,16 +4802,16 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
         <v>1836.345445977175</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2092.422847177208</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="W8" t="n">
-        <v>2092.422847177208</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="X8" t="n">
-        <v>2092.422847177208</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1937.315630222944</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4872,7 +4872,7 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4884,16 +4884,16 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="S10" t="n">
-        <v>513.840561024597</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="T10" t="n">
-        <v>513.840561024597</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="U10" t="n">
-        <v>274.7355609638946</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="V10" t="n">
-        <v>274.7355609638946</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="W10" t="n">
-        <v>274.7355609638946</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X10" t="n">
-        <v>274.7355609638946</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5030,7 +5030,7 @@
         <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822458</v>
@@ -5042,7 +5042,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5118,16 +5118,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N12" t="n">
         <v>2051.878056918008</v>
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>711.0729548808318</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C13" t="n">
-        <v>542.1367719529251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
         <v>97.21709146028584</v>
@@ -5227,22 +5227,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.78763177146</v>
+        <v>986.0022165609665</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.78763177146</v>
+        <v>731.3177283550797</v>
       </c>
       <c r="W13" t="n">
-        <v>920.3704617344997</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X13" t="n">
-        <v>920.3704617344997</v>
+        <v>213.9110074201017</v>
       </c>
       <c r="Y13" t="n">
-        <v>711.0729548808318</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5279,16 +5279,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5309,19 +5309,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5364,7 +5364,7 @@
         <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
         <v>2051.878056918008</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.7969603949467</v>
+        <v>576.3642008327095</v>
       </c>
       <c r="C16" t="n">
-        <v>391.8607774670398</v>
+        <v>407.4280179048025</v>
       </c>
       <c r="D16" t="n">
-        <v>391.8607774670398</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E16" t="n">
-        <v>391.8607774670398</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185178</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5440,46 +5440,46 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1298.996260473455</v>
+        <v>986.0022165609665</v>
       </c>
       <c r="V16" t="n">
-        <v>1298.996260473455</v>
+        <v>986.0022165609665</v>
       </c>
       <c r="W16" t="n">
-        <v>1009.579090436494</v>
+        <v>986.0022165609665</v>
       </c>
       <c r="X16" t="n">
-        <v>781.5895395384769</v>
+        <v>758.0126656629492</v>
       </c>
       <c r="Y16" t="n">
-        <v>560.7969603949467</v>
+        <v>758.0126656629492</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,25 +5498,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5528,37 +5528,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277035</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L18" t="n">
-        <v>901.6749225845924</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.043068977054</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N18" t="n">
-        <v>1999.905696641087</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>441.9005583181195</v>
+        <v>213.9110074201012</v>
       </c>
       <c r="C19" t="n">
-        <v>272.9643753902126</v>
+        <v>213.9110074201012</v>
       </c>
       <c r="D19" t="n">
-        <v>244.1070389581962</v>
+        <v>213.9110074201012</v>
       </c>
       <c r="E19" t="n">
-        <v>244.1070389581962</v>
+        <v>213.9110074201012</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5692,31 +5692,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347409</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>986.002216560967</v>
+        <v>986.0022165609661</v>
       </c>
       <c r="V19" t="n">
-        <v>731.3177283550801</v>
+        <v>731.3177283550792</v>
       </c>
       <c r="W19" t="n">
-        <v>441.9005583181195</v>
+        <v>441.9005583181186</v>
       </c>
       <c r="X19" t="n">
-        <v>441.9005583181195</v>
+        <v>213.9110074201012</v>
       </c>
       <c r="Y19" t="n">
-        <v>441.9005583181195</v>
+        <v>213.9110074201012</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5738,22 +5738,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,40 +5762,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,16 +5826,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>233.7852434110083</v>
+        <v>233.7852434110089</v>
       </c>
       <c r="K21" t="n">
-        <v>644.675512255521</v>
+        <v>644.6755122555215</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619851</v>
+        <v>891.4406401619856</v>
       </c>
       <c r="M21" t="n">
         <v>1198.760773441947</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>444.8933943850833</v>
+        <v>216.9038434870655</v>
       </c>
       <c r="C22" t="n">
-        <v>275.9572114571764</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>275.9572114571764</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>128.0441178747833</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V22" t="n">
-        <v>955.103143565574</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W22" t="n">
-        <v>665.6859735286134</v>
+        <v>665.685973528613</v>
       </c>
       <c r="X22" t="n">
-        <v>665.6859735286134</v>
+        <v>437.6964226305956</v>
       </c>
       <c r="Y22" t="n">
-        <v>444.8933943850833</v>
+        <v>216.9038434870655</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6011,28 +6011,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341676</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1016.813592216475</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1346.676219880508</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,40 +6121,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>542.1367719529251</v>
+        <v>216.9038434870656</v>
       </c>
       <c r="C25" t="n">
-        <v>542.1367719529251</v>
+        <v>216.9038434870656</v>
       </c>
       <c r="D25" t="n">
-        <v>392.0201325405894</v>
+        <v>216.9038434870656</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>216.9038434870656</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>1314.22798109379</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V25" t="n">
-        <v>1059.543492887903</v>
+        <v>955.1031435655736</v>
       </c>
       <c r="W25" t="n">
-        <v>770.1263228509424</v>
+        <v>665.6859735286131</v>
       </c>
       <c r="X25" t="n">
-        <v>542.1367719529251</v>
+        <v>437.6964226305957</v>
       </c>
       <c r="Y25" t="n">
-        <v>542.1367719529251</v>
+        <v>216.9038434870656</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6236,40 +6236,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6300,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>263.5382936126482</v>
@@ -6309,22 +6309,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>441.9005583181186</v>
+        <v>564.1830073829216</v>
       </c>
       <c r="C28" t="n">
-        <v>441.9005583181186</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D28" t="n">
-        <v>392.0201325405894</v>
+        <v>245.1301850426789</v>
       </c>
       <c r="E28" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,7 +6400,7 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
         <v>1498.916270557902</v>
@@ -6412,22 +6412,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1289.64459920549</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609662</v>
+        <v>1000.515960419048</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550792</v>
+        <v>745.8314722131613</v>
       </c>
       <c r="W28" t="n">
-        <v>441.9005583181187</v>
+        <v>745.8314722131613</v>
       </c>
       <c r="X28" t="n">
-        <v>441.9005583181187</v>
+        <v>745.8314722131613</v>
       </c>
       <c r="Y28" t="n">
-        <v>441.9005583181187</v>
+        <v>745.8314722131613</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6458,55 +6458,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>229.0333923118347</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>378.1030765138945</v>
+        <v>674.4285624571611</v>
       </c>
       <c r="L30" t="n">
-        <v>624.8682044203586</v>
+        <v>921.1936903636253</v>
       </c>
       <c r="M30" t="n">
-        <v>932.1883377003201</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1736.599915964471</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O30" t="n">
-        <v>2016.139981183168</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>439.5324299542185</v>
+        <v>488.0294937553491</v>
       </c>
       <c r="C31" t="n">
-        <v>378.3822370629595</v>
+        <v>374.8541761088129</v>
       </c>
       <c r="D31" t="n">
-        <v>284.0264629319945</v>
+        <v>280.4984019778479</v>
       </c>
       <c r="E31" t="n">
-        <v>191.8742346309718</v>
+        <v>188.3461736768255</v>
       </c>
       <c r="F31" t="n">
-        <v>191.8742346309718</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>191.8742346309718</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>164.2510079864672</v>
@@ -6628,10 +6628,10 @@
         <v>671.4509053667509</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962054</v>
+        <v>997.6688721962053</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
@@ -6655,16 +6655,16 @@
         <v>1335.260356661999</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737483</v>
+        <v>1184.833797538614</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818931</v>
+        <v>951.177492783024</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652466</v>
+        <v>778.9488071663774</v>
       </c>
       <c r="Y31" t="n">
-        <v>565.4200295030873</v>
+        <v>613.917093304218</v>
       </c>
     </row>
     <row r="32">
@@ -6677,49 +6677,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823789</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,37 +6765,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.32563221405</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M33" t="n">
-        <v>1722.015429253975</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103128</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6859,10 +6859,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6877,22 +6877,22 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
@@ -6901,7 +6901,7 @@
         <v>924.2611010045213</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010323</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="35">
@@ -6911,46 +6911,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899128</v>
@@ -6959,28 +6959,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -6990,52 +6990,52 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7050,7 +7050,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7069,46 +7069,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103127</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982971</v>
+        <v>139.931591798297</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525404</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254961</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
         <v>1932.236826184156</v>
@@ -7126,7 +7126,7 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V37" t="n">
         <v>1304.027639859417</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,67 +7157,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7227,52 +7227,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7287,7 +7287,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504509</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103126</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="41">
@@ -7400,28 +7400,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643324</v>
@@ -7433,7 +7433,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7476,34 +7476,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.37645130762</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526317</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7543,52 +7543,52 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M43" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P43" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7609,7 +7609,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y43" t="n">
         <v>772.2886129010315</v>
@@ -7637,10 +7637,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028562</v>
@@ -7743,10 +7743,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7792,7 +7792,7 @@
         <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7846,7 +7846,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010318</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>327.421860962789</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8541,10 +8541,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783517</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8775,10 +8775,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N12" t="n">
-        <v>423.3376789165115</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8790,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9012,10 +9012,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165115</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>52.49733361305141</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>96.0374492781462</v>
+        <v>96.03744927814688</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9501,7 +9501,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>176.7176547498445</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,10 +9957,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>127.6461250100647</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,10 +10188,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>91.23759968302144</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,19 +10200,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720721</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10431,10 +10431,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>127.6461250100648</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776744</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119865</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298102</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298479</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11069,7 +11069,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119856</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208067</v>
+        <v>277.6717966208061</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11391,13 +11391,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23416,16 +23416,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -23467,22 +23467,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.38012156696364</v>
+        <v>103.0576765518771</v>
       </c>
     </row>
     <row r="14">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>136.8544468522462</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>130.6366128038943</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,16 +23890,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>120.0467099505161</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>29.89407122271403</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24127,16 +24127,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>48.75693659211595</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>114.9022918725788</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>26.93116351641928</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24418,7 +24418,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>103.3959458291054</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,19 +24598,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>99.23385149845845</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24652,7 +24652,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>14.36860641950126</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24838,7 +24838,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>51.50487350772427</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437416</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>93.7105717389791</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571491</v>
+        <v>55.21598883571495</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>48.01209316311926</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-5.420108933905772e-13</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>959856.5572667966</v>
+        <v>959856.5572667965</v>
       </c>
     </row>
     <row r="7">
@@ -26314,31 +26314,31 @@
         <v>451572.973425356</v>
       </c>
       <c r="C2" t="n">
+        <v>451572.973425356</v>
+      </c>
+      <c r="D2" t="n">
         <v>451572.9734253559</v>
       </c>
-      <c r="D2" t="n">
-        <v>451572.973425356</v>
-      </c>
       <c r="E2" t="n">
-        <v>430131.9657114796</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="F2" t="n">
-        <v>430131.9657114796</v>
+        <v>430131.9657114795</v>
       </c>
       <c r="G2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="H2" t="n">
-        <v>430131.9657114798</v>
+        <v>430131.9657114797</v>
       </c>
       <c r="I2" t="n">
         <v>430131.9657114797</v>
       </c>
       <c r="J2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="K2" t="n">
-        <v>447504.351079797</v>
+        <v>447504.3510797973</v>
       </c>
       <c r="L2" t="n">
         <v>451572.9734253563</v>
@@ -26350,7 +26350,7 @@
         <v>451572.9734253563</v>
       </c>
       <c r="O2" t="n">
-        <v>451572.9734253563</v>
+        <v>451572.9734253562</v>
       </c>
       <c r="P2" t="n">
         <v>451572.9734253563</v>
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284567</v>
+        <v>44162.60530284578</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086689</v>
+        <v>10342.90680086687</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284548</v>
       </c>
     </row>
     <row r="4">
@@ -26427,34 +26427,34 @@
         <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
+        <v>22174.60758687073</v>
+      </c>
+      <c r="G4" t="n">
         <v>22174.60758687071</v>
       </c>
-      <c r="G4" t="n">
-        <v>22174.60758687068</v>
-      </c>
       <c r="H4" t="n">
-        <v>22174.60758687068</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>22174.60758687068</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="K4" t="n">
-        <v>40339.23010106727</v>
+        <v>40339.23010106721</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.3948281912</v>
+        <v>44593.39482819116</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819114</v>
+        <v>44593.39482819116</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819114</v>
+        <v>44593.39482819119</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819122</v>
+        <v>44593.39482819117</v>
       </c>
       <c r="P4" t="n">
         <v>44593.39482819119</v>
@@ -26470,43 +26470,43 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
+        <v>82859.07806340946</v>
+      </c>
+      <c r="D5" t="n">
         <v>82859.07806340948</v>
       </c>
-      <c r="D5" t="n">
-        <v>82859.07806340947</v>
-      </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022279</v>
+        <v>96628.20853022281</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002542</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26528,31 +26528,31 @@
         <v>203081.0275754221</v>
       </c>
       <c r="E6" t="n">
-        <v>-209190.0043010039</v>
+        <v>-209287.4634269758</v>
       </c>
       <c r="F6" t="n">
-        <v>315970.0321758923</v>
+        <v>315872.57304992</v>
       </c>
       <c r="G6" t="n">
-        <v>315970.0321758923</v>
+        <v>315872.5730499201</v>
       </c>
       <c r="H6" t="n">
-        <v>315970.0321758924</v>
+        <v>315872.5730499202</v>
       </c>
       <c r="I6" t="n">
-        <v>315970.0321758923</v>
+        <v>315872.5730499201</v>
       </c>
       <c r="J6" t="n">
-        <v>139546.8129832994</v>
+        <v>139449.3538573274</v>
       </c>
       <c r="K6" t="n">
-        <v>266374.3071456613</v>
+        <v>266355.8134077272</v>
       </c>
       <c r="L6" t="n">
         <v>298921.5659762729</v>
       </c>
       <c r="M6" t="n">
-        <v>174463.4575433024</v>
+        <v>174463.4575433027</v>
       </c>
       <c r="N6" t="n">
         <v>309264.4727771397</v>
@@ -26561,7 +26561,7 @@
         <v>309264.4727771397</v>
       </c>
       <c r="P6" t="n">
-        <v>265101.867474294</v>
+        <v>265101.8674742942</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26710,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964065</v>
@@ -26738,43 +26738,43 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170868</v>
       </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545557</v>
@@ -26820,10 +26820,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
         <v>1215.213643253573</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108361</v>
+        <v>12.92863350108359</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855704</v>
       </c>
     </row>
     <row r="3">
@@ -26966,25 +26966,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.273736754432321e-13</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>118.3598703908382</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>234.9188799907857</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27537,19 +27537,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>81.37511273779172</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>145.1993891636096</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27582,10 +27582,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27616,10 +27616,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>24.48094395007277</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>133.6811286664005</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>169.1919080084481</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27786,7 +27786,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853698</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491428</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,7 +27831,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>28.98780970275058</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481167</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>2.496509910248051</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>232.6817938713327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853698</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,28 +28053,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>49.56792418188229</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>272.3278948523651</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855709</v>
+        <v>55.20325662855702</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="38">
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964061</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -31282,43 +31282,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554469</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633801</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473556</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141113</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034984</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619155</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644445</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302242</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,25 +31458,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175848</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383803</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678011</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,43 +31519,43 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554469</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
         <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633801</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473556</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141113</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034984</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619155</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644445</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302242</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,25 +31695,25 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175848</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383803</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678011</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,10 +32224,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,37 +32236,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,31 +32309,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32342,7 +32342,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H31" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34199,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34296,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713957</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35106,10 +35106,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873152</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262939</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713957</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873152</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35495,19 +35495,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N12" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
         <v>59.8253897034981</v>
@@ -35732,10 +35732,10 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
         <v>282.3637022411082</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490674</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594837</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>334.8610358541597</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507419</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,19 +36039,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>137.9476282330529</v>
+        <v>137.9476282330536</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36215,7 +36215,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>487.1420318003109</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36677,10 +36677,10 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>438.070502060531</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
@@ -36689,13 +36689,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>133.1477786379281</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941226</v>
+        <v>67.71102679412257</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584676</v>
@@ -37002,13 +37002,13 @@
         <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491599</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.5868572403578</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043183</v>
+        <v>94.4289566004318</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M33" t="n">
-        <v>438.070502060531</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091992</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414415</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081142</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414415</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970350042</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,7 +37710,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081133</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523313</v>
+        <v>484.7652115523309</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38111,13 +38111,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
